--- a/BaseProjetoDesnormalizada.xlsx
+++ b/BaseProjetoDesnormalizada.xlsx
@@ -16,101 +16,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>id_ProjetoBI</t>
-  </si>
-  <si>
-    <t>str_Cliente</t>
-  </si>
-  <si>
-    <t>str_Usuario</t>
-  </si>
-  <si>
-    <t>str_Email</t>
-  </si>
-  <si>
-    <t>bit_StatusAtivo</t>
-  </si>
-  <si>
-    <t>str_DescrInativo</t>
-  </si>
-  <si>
-    <t>str_TipoAcessoServidor</t>
-  </si>
-  <si>
-    <t>str_NomeServidor</t>
-  </si>
-  <si>
-    <t>str_NomeDataBase</t>
-  </si>
-  <si>
-    <t>str_NomeProjetoBI</t>
-  </si>
-  <si>
-    <t>bit_PossuiAplicativo</t>
-  </si>
-  <si>
-    <t>str_TipoLicenca</t>
-  </si>
-  <si>
-    <t>bit_PossuiRegraNegocio</t>
-  </si>
-  <si>
-    <t>str_DescrRegraRLSBI</t>
-  </si>
-  <si>
-    <t>int_QtdeAtualizacoes</t>
-  </si>
-  <si>
-    <t>str_AtualizacaoAgendada</t>
-  </si>
-  <si>
-    <t>bit_PossuiBIPersonalizado</t>
-  </si>
-  <si>
-    <t>str_DescrBIPersonalizado</t>
-  </si>
-  <si>
-    <t>bit_MelhoriasBI</t>
-  </si>
-  <si>
-    <t>str_DescrMelhoriasBI</t>
-  </si>
-  <si>
-    <t>dta_DataMelhoria</t>
-  </si>
-  <si>
-    <t>int_NroPendencia</t>
-  </si>
-  <si>
-    <t>dta_DataInicioPendencia</t>
-  </si>
-  <si>
-    <t>dta_DataFimPendencia</t>
-  </si>
-  <si>
-    <t>int_NroAtendimento</t>
-  </si>
-  <si>
-    <t>dta_DataInicioAtendimento</t>
-  </si>
-  <si>
-    <t>dta_DataFimAtendimento</t>
-  </si>
-  <si>
-    <t>str_VersionamentoProjeto</t>
-  </si>
-  <si>
-    <t>dta_DataCadastro</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>int_CodCliente</t>
+  </si>
+  <si>
+    <t>000 - ATENDIMENTOS OW</t>
+  </si>
+  <si>
+    <t>POWER BI CLOUD</t>
+  </si>
+  <si>
+    <t>POWERBI.CLOUD@OUROWEB.COM.BR</t>
+  </si>
+  <si>
+    <t>SRV-TESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASETESTE </t>
+  </si>
+  <si>
+    <t>GESTÃO DE SUPORTE</t>
+  </si>
+  <si>
+    <t>DEDICADO</t>
+  </si>
+  <si>
+    <t>PRÓ</t>
+  </si>
+  <si>
+    <t>06H00AM/ 12H00PM</t>
+  </si>
+  <si>
+    <t>PROJETO INTERNO</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>str_usuario</t>
+  </si>
+  <si>
+    <t>str_email</t>
+  </si>
+  <si>
+    <t>bit_statusAtivo</t>
+  </si>
+  <si>
+    <t>str_descrInativo</t>
+  </si>
+  <si>
+    <t>int_codTipoAcessoServidor</t>
+  </si>
+  <si>
+    <t>str_tipoAcessoServidor</t>
+  </si>
+  <si>
+    <t>str_nomeServidor</t>
+  </si>
+  <si>
+    <t>str_nomeDataBase</t>
+  </si>
+  <si>
+    <t>int_codNomeProjetoBI</t>
+  </si>
+  <si>
+    <t>str_nomeProjetoBI</t>
+  </si>
+  <si>
+    <t>bit_possuiAplicativo</t>
+  </si>
+  <si>
+    <t>str_tipoLicenca</t>
+  </si>
+  <si>
+    <t>bit_possuiRegraNegocio</t>
+  </si>
+  <si>
+    <t>str_descrRegraRLSBI</t>
+  </si>
+  <si>
+    <t>int_qtdeAtualizacoes</t>
+  </si>
+  <si>
+    <t>str_atualizacaoAgendada</t>
+  </si>
+  <si>
+    <t>bit_possuiBIPersonalizado</t>
+  </si>
+  <si>
+    <t>str_descrBIPersonalizado</t>
+  </si>
+  <si>
+    <t>int_codMelhoriasBI</t>
+  </si>
+  <si>
+    <t>bit_melhoriasBI</t>
+  </si>
+  <si>
+    <t>str_descrMelhoriasBI</t>
+  </si>
+  <si>
+    <t>dta_dataMelhoria</t>
+  </si>
+  <si>
+    <t>int_codPendencia</t>
+  </si>
+  <si>
+    <t>dta_dataInicioPendencia</t>
+  </si>
+  <si>
+    <t>dta_dataFimPendencia</t>
+  </si>
+  <si>
+    <t>int_codAtendimento</t>
+  </si>
+  <si>
+    <t>dta_dataInicioAtendimento</t>
+  </si>
+  <si>
+    <t>dta_dataFimAtendimento</t>
+  </si>
+  <si>
+    <t>int_codVersionamentoProjeto</t>
+  </si>
+  <si>
+    <t>str_versionamentoProjeto</t>
+  </si>
+  <si>
+    <t>dta_dataCadastro</t>
+  </si>
+  <si>
+    <t>str_cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,16 +191,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="35">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -252,38 +326,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AC1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:AC1048576"/>
-  <tableColumns count="29">
-    <tableColumn id="1" name="id_ProjetoBI" dataDxfId="30"/>
-    <tableColumn id="2" name="str_Cliente" dataDxfId="29"/>
-    <tableColumn id="3" name="str_Usuario" dataDxfId="28"/>
-    <tableColumn id="4" name="str_Email" dataDxfId="27"/>
-    <tableColumn id="5" name="bit_StatusAtivo" dataDxfId="26"/>
-    <tableColumn id="6" name="str_DescrInativo" dataDxfId="25"/>
-    <tableColumn id="7" name="str_TipoAcessoServidor" dataDxfId="24"/>
-    <tableColumn id="8" name="str_NomeServidor" dataDxfId="23"/>
-    <tableColumn id="9" name="str_NomeDataBase" dataDxfId="22"/>
-    <tableColumn id="10" name="str_NomeProjetoBI" dataDxfId="21"/>
-    <tableColumn id="11" name="bit_PossuiAplicativo" dataDxfId="20"/>
-    <tableColumn id="12" name="str_TipoLicenca" dataDxfId="19"/>
-    <tableColumn id="13" name="bit_PossuiRegraNegocio" dataDxfId="18"/>
-    <tableColumn id="14" name="str_DescrRegraRLSBI" dataDxfId="17"/>
-    <tableColumn id="15" name="int_QtdeAtualizacoes" dataDxfId="16"/>
-    <tableColumn id="16" name="str_AtualizacaoAgendada" dataDxfId="15"/>
-    <tableColumn id="17" name="bit_PossuiBIPersonalizado" dataDxfId="14"/>
-    <tableColumn id="18" name="str_DescrBIPersonalizado" dataDxfId="13"/>
-    <tableColumn id="19" name="bit_MelhoriasBI" dataDxfId="12"/>
-    <tableColumn id="20" name="str_DescrMelhoriasBI" dataDxfId="11"/>
-    <tableColumn id="21" name="dta_DataMelhoria" dataDxfId="10"/>
-    <tableColumn id="22" name="int_NroPendencia" dataDxfId="9"/>
-    <tableColumn id="23" name="dta_DataInicioPendencia" dataDxfId="8"/>
-    <tableColumn id="24" name="dta_DataFimPendencia" dataDxfId="7"/>
-    <tableColumn id="25" name="int_NroAtendimento" dataDxfId="6"/>
-    <tableColumn id="26" name="dta_DataInicioAtendimento" dataDxfId="5"/>
-    <tableColumn id="27" name="dta_DataFimAtendimento" dataDxfId="4"/>
-    <tableColumn id="28" name="str_VersionamentoProjeto" dataDxfId="3"/>
-    <tableColumn id="29" name="dta_DataCadastro" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AG1048576" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:AG1048576"/>
+  <tableColumns count="33">
+    <tableColumn id="1" name="int_CodCliente" dataDxfId="32"/>
+    <tableColumn id="2" name="str_cliente" dataDxfId="31"/>
+    <tableColumn id="3" name="str_usuario" dataDxfId="30"/>
+    <tableColumn id="4" name="str_email" dataDxfId="29"/>
+    <tableColumn id="5" name="bit_statusAtivo" dataDxfId="28"/>
+    <tableColumn id="6" name="str_descrInativo" dataDxfId="27"/>
+    <tableColumn id="7" name="int_codTipoAcessoServidor" dataDxfId="26"/>
+    <tableColumn id="8" name="str_tipoAcessoServidor" dataDxfId="25"/>
+    <tableColumn id="9" name="str_nomeServidor" dataDxfId="24"/>
+    <tableColumn id="10" name="str_nomeDataBase" dataDxfId="23"/>
+    <tableColumn id="11" name="int_codNomeProjetoBI" dataDxfId="22"/>
+    <tableColumn id="12" name="str_nomeProjetoBI" dataDxfId="21"/>
+    <tableColumn id="13" name="bit_possuiAplicativo" dataDxfId="20"/>
+    <tableColumn id="14" name="str_tipoLicenca" dataDxfId="19"/>
+    <tableColumn id="15" name="bit_possuiRegraNegocio" dataDxfId="18"/>
+    <tableColumn id="16" name="str_descrRegraRLSBI" dataDxfId="17"/>
+    <tableColumn id="17" name="int_qtdeAtualizacoes" dataDxfId="16"/>
+    <tableColumn id="18" name="str_atualizacaoAgendada" dataDxfId="15"/>
+    <tableColumn id="19" name="bit_possuiBIPersonalizado" dataDxfId="14"/>
+    <tableColumn id="20" name="str_descrBIPersonalizado" dataDxfId="13"/>
+    <tableColumn id="21" name="int_codMelhoriasBI" dataDxfId="12"/>
+    <tableColumn id="22" name="bit_melhoriasBI" dataDxfId="11"/>
+    <tableColumn id="23" name="str_descrMelhoriasBI" dataDxfId="10"/>
+    <tableColumn id="24" name="dta_dataMelhoria" dataDxfId="9"/>
+    <tableColumn id="25" name="int_codPendencia" dataDxfId="8"/>
+    <tableColumn id="26" name="dta_dataInicioPendencia" dataDxfId="7"/>
+    <tableColumn id="27" name="dta_dataFimPendencia" dataDxfId="6"/>
+    <tableColumn id="28" name="int_codAtendimento" dataDxfId="5"/>
+    <tableColumn id="29" name="dta_dataInicioAtendimento" dataDxfId="4"/>
+    <tableColumn id="30" name="dta_dataFimAtendimento" dataDxfId="3"/>
+    <tableColumn id="31" name="int_codVersionamentoProjeto" dataDxfId="2"/>
+    <tableColumn id="32" name="str_versionamentoProjeto" dataDxfId="1"/>
+    <tableColumn id="33" name="dta_dataCadastro" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -579,110 +657,182 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="34.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="AG2" s="2">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BaseProjetoDesnormalizada.xlsx
+++ b/BaseProjetoDesnormalizada.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>int_CodCliente</t>
   </si>
@@ -66,9 +66,6 @@
     <t>str_descrInativo</t>
   </si>
   <si>
-    <t>int_codTipoAcessoServidor</t>
-  </si>
-  <si>
     <t>str_tipoAcessoServidor</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>str_nomeDataBase</t>
   </si>
   <si>
-    <t>int_codNomeProjetoBI</t>
-  </si>
-  <si>
     <t>str_nomeProjetoBI</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>str_descrBIPersonalizado</t>
   </si>
   <si>
-    <t>int_codMelhoriasBI</t>
-  </si>
-  <si>
     <t>bit_melhoriasBI</t>
   </si>
   <si>
@@ -120,25 +111,16 @@
     <t>dta_dataMelhoria</t>
   </si>
   <si>
-    <t>int_codPendencia</t>
-  </si>
-  <si>
     <t>dta_dataInicioPendencia</t>
   </si>
   <si>
     <t>dta_dataFimPendencia</t>
   </si>
   <si>
-    <t>int_codAtendimento</t>
-  </si>
-  <si>
     <t>dta_dataInicioAtendimento</t>
   </si>
   <si>
     <t>dta_dataFimAtendimento</t>
-  </si>
-  <si>
-    <t>int_codVersionamentoProjeto</t>
   </si>
   <si>
     <t>str_versionamentoProjeto</t>
@@ -209,25 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -326,40 +290,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AG1048576" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:AG1048576"/>
-  <tableColumns count="33">
-    <tableColumn id="1" name="int_CodCliente" dataDxfId="32"/>
-    <tableColumn id="2" name="str_cliente" dataDxfId="31"/>
-    <tableColumn id="3" name="str_usuario" dataDxfId="30"/>
-    <tableColumn id="4" name="str_email" dataDxfId="29"/>
-    <tableColumn id="5" name="bit_statusAtivo" dataDxfId="28"/>
-    <tableColumn id="6" name="str_descrInativo" dataDxfId="27"/>
-    <tableColumn id="7" name="int_codTipoAcessoServidor" dataDxfId="26"/>
-    <tableColumn id="8" name="str_tipoAcessoServidor" dataDxfId="25"/>
-    <tableColumn id="9" name="str_nomeServidor" dataDxfId="24"/>
-    <tableColumn id="10" name="str_nomeDataBase" dataDxfId="23"/>
-    <tableColumn id="11" name="int_codNomeProjetoBI" dataDxfId="22"/>
-    <tableColumn id="12" name="str_nomeProjetoBI" dataDxfId="21"/>
-    <tableColumn id="13" name="bit_possuiAplicativo" dataDxfId="20"/>
-    <tableColumn id="14" name="str_tipoLicenca" dataDxfId="19"/>
-    <tableColumn id="15" name="bit_possuiRegraNegocio" dataDxfId="18"/>
-    <tableColumn id="16" name="str_descrRegraRLSBI" dataDxfId="17"/>
-    <tableColumn id="17" name="int_qtdeAtualizacoes" dataDxfId="16"/>
-    <tableColumn id="18" name="str_atualizacaoAgendada" dataDxfId="15"/>
-    <tableColumn id="19" name="bit_possuiBIPersonalizado" dataDxfId="14"/>
-    <tableColumn id="20" name="str_descrBIPersonalizado" dataDxfId="13"/>
-    <tableColumn id="21" name="int_codMelhoriasBI" dataDxfId="12"/>
-    <tableColumn id="22" name="bit_melhoriasBI" dataDxfId="11"/>
-    <tableColumn id="23" name="str_descrMelhoriasBI" dataDxfId="10"/>
-    <tableColumn id="24" name="dta_dataMelhoria" dataDxfId="9"/>
-    <tableColumn id="25" name="int_codPendencia" dataDxfId="8"/>
-    <tableColumn id="26" name="dta_dataInicioPendencia" dataDxfId="7"/>
-    <tableColumn id="27" name="dta_dataFimPendencia" dataDxfId="6"/>
-    <tableColumn id="28" name="int_codAtendimento" dataDxfId="5"/>
-    <tableColumn id="29" name="dta_dataInicioAtendimento" dataDxfId="4"/>
-    <tableColumn id="30" name="dta_dataFimAtendimento" dataDxfId="3"/>
-    <tableColumn id="31" name="int_codVersionamentoProjeto" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AA1048576" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:AA1048576"/>
+  <tableColumns count="27">
+    <tableColumn id="1" name="int_CodCliente" dataDxfId="26"/>
+    <tableColumn id="2" name="str_cliente" dataDxfId="25"/>
+    <tableColumn id="3" name="str_usuario" dataDxfId="24"/>
+    <tableColumn id="4" name="str_email" dataDxfId="23"/>
+    <tableColumn id="5" name="bit_statusAtivo" dataDxfId="22"/>
+    <tableColumn id="6" name="str_descrInativo" dataDxfId="21"/>
+    <tableColumn id="8" name="str_tipoAcessoServidor" dataDxfId="20"/>
+    <tableColumn id="9" name="str_nomeServidor" dataDxfId="19"/>
+    <tableColumn id="10" name="str_nomeDataBase" dataDxfId="18"/>
+    <tableColumn id="12" name="str_nomeProjetoBI" dataDxfId="17"/>
+    <tableColumn id="13" name="bit_possuiAplicativo" dataDxfId="16"/>
+    <tableColumn id="14" name="str_tipoLicenca" dataDxfId="15"/>
+    <tableColumn id="15" name="bit_possuiRegraNegocio" dataDxfId="14"/>
+    <tableColumn id="16" name="str_descrRegraRLSBI" dataDxfId="13"/>
+    <tableColumn id="17" name="int_qtdeAtualizacoes" dataDxfId="12"/>
+    <tableColumn id="18" name="str_atualizacaoAgendada" dataDxfId="11"/>
+    <tableColumn id="19" name="bit_possuiBIPersonalizado" dataDxfId="10"/>
+    <tableColumn id="20" name="str_descrBIPersonalizado" dataDxfId="9"/>
+    <tableColumn id="22" name="bit_melhoriasBI" dataDxfId="8"/>
+    <tableColumn id="23" name="str_descrMelhoriasBI" dataDxfId="7"/>
+    <tableColumn id="24" name="dta_dataMelhoria" dataDxfId="6"/>
+    <tableColumn id="26" name="dta_dataInicioPendencia" dataDxfId="5"/>
+    <tableColumn id="27" name="dta_dataFimPendencia" dataDxfId="4"/>
+    <tableColumn id="29" name="dta_dataInicioAtendimento" dataDxfId="3"/>
+    <tableColumn id="30" name="dta_dataFimAtendimento" dataDxfId="2"/>
     <tableColumn id="32" name="str_versionamentoProjeto" dataDxfId="1"/>
     <tableColumn id="33" name="dta_dataCadastro" dataDxfId="0"/>
   </tableColumns>
@@ -657,10 +615,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,12 +626,12 @@
     <col min="1" max="16384" width="34.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -747,29 +705,11 @@
       <c r="Z1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,50 +722,50 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
-        <v>2</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AA2" s="2">
         <v>46042</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
     </row>
   </sheetData>
